--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_13.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514381</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -759,7 +759,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103.0088977318019</v>
+        <v>238.8022356950655</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
@@ -1415,13 +1415,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>15.34175039594457</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,58 +1613,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,58 +1853,58 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,67 +2087,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.6206731470971</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2321,70 +2321,70 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.98138655216532</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>116.6930783966232</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2491,46 +2491,46 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>145.3526262757925</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>124.906780124857</v>
       </c>
       <c r="C30" t="n">
-        <v>89.29749682216323</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,25 +3032,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="33">
@@ -3108,28 +3108,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="37">
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,10 +3645,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="X41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,16 +3986,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4019,31 +4019,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>51.72215467797748</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>123.3365499318636</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4119,7 +4119,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="3">
@@ -4386,25 +4386,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,10 +4413,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
         <v>712.019119383956</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E5" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,7 +4650,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
         <v>473.4149733950735</v>
@@ -4683,13 +4683,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>777.5613083818946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>569.7098081763618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.9495094114078</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H8" t="n">
         <v>243.9530410142718</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="G11" t="n">
         <v>487.4018176583718</v>
@@ -5063,28 +5063,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,49 +5121,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K14" t="n">
         <v>122.2961490211351</v>
@@ -5303,25 +5303,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5461,25 +5461,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5543,22 +5543,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5601,34 +5601,34 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5838,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>845.2483947559926</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>845.2483947559926</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>617.0247764923818</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>617.0247764923818</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>373.5759998482816</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>373.5759998482816</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>812.6742080953335</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W23" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>873.1668660640046</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>873.1668660640046</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>873.1668660640046</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>644.9432478003937</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V24" t="n">
-        <v>644.9432478003937</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>401.4944711562937</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>401.4944711562937</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6178,19 +6178,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>655.0361258579891</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C27" t="n">
-        <v>655.0361258579891</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D27" t="n">
-        <v>655.0361258579891</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6315,7 +6315,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>655.0361258579891</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
-        <v>655.0361258579891</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6549,10 +6549,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X30" t="n">
-        <v>485.4562706347935</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y30" t="n">
-        <v>277.6959718698396</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="31">
@@ -6643,25 +6643,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>487.4018176583718</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C32" t="n">
-        <v>487.4018176583718</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D32" t="n">
-        <v>243.9530410142718</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E32" t="n">
-        <v>243.9530410142718</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F32" t="n">
-        <v>243.9530410142718</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G32" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>487.4018176583718</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7056,10 +7056,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="C38" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="D38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C38" t="n">
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7363,10 +7363,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7494,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7521,16 +7521,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
         <v>20.03527576299844</v>
@@ -7585,19 +7585,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>231.8830517671884</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V45" t="n">
-        <v>399.5118995681682</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W45" t="n">
-        <v>156.0631229240681</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8544,13 +8544,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,10 +9963,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>369.031319612638</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22562,7 +22562,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22595,22 +22595,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,19 +22784,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>134.3983961749249</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,28 +22860,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>67.06409450346541</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23030,13 +23030,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23063,16 +23063,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>312.2938397833332</v>
+        <v>176.5005018200695</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23352,10 +23352,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>96.89369384055189</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>115.2702034285012</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,16 +23628,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,16 +23783,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24057,7 +24057,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24096,25 +24096,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>54.0624979567407</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24209,10 +24209,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X23" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.17644760047781</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>109.2483036843516</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,10 +24348,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24379,7 +24379,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,16 +24443,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24497,13 +24497,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24528,19 +24528,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>12.29245417960846</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,10 +24734,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>41.62640352501036</v>
       </c>
       <c r="C30" t="n">
-        <v>83.41100216615251</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24819,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,25 +24920,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>180.3309744674483</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="33">
@@ -24996,28 +24996,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>120.6456090999285</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,13 +25208,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>94.78158527535656</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="37">
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25445,19 +25445,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>198.920084420089</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,7 +25524,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25603,13 +25603,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,10 +25643,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
         <v>86.16204325169439</v>
@@ -25834,13 +25834,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,16 +25874,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,22 +25907,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>276.0301037921574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25959,13 +25959,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>76.82817876295805</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26007,7 +26007,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>71.10541651401849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26080,10 +26080,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="F2" t="n">
         <v>108004.437145366</v>
@@ -26344,13 +26344,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26457,7 +26457,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26519,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764729</v>
+        <v>-21225.79564764732</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390043</v>
+        <v>59543.63588390042</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.63588390039</v>
+        <v>59543.63588390044</v>
       </c>
       <c r="E6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390043</v>
       </c>
       <c r="F6" t="n">
         <v>93171.2358839004</v>
@@ -26537,31 +26537,31 @@
         <v>93171.23588390039</v>
       </c>
       <c r="H6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="I6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30111.29328479416</v>
+      </c>
+      <c r="K6" t="n">
         <v>93171.2358839004</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>93171.23588390037</v>
       </c>
-      <c r="J6" t="n">
-        <v>30111.29328479415</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>93171.23588390042</v>
+      </c>
+      <c r="N6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="O6" t="n">
+        <v>93171.23588390042</v>
+      </c>
+      <c r="P6" t="n">
         <v>93171.23588390039</v>
-      </c>
-      <c r="L6" t="n">
-        <v>93171.23588390039</v>
-      </c>
-      <c r="M6" t="n">
-        <v>93171.23588390039</v>
-      </c>
-      <c r="N6" t="n">
-        <v>93171.23588390039</v>
-      </c>
-      <c r="O6" t="n">
-        <v>93171.2358839004</v>
-      </c>
-      <c r="P6" t="n">
-        <v>93171.2358839004</v>
       </c>
     </row>
   </sheetData>
@@ -34781,13 +34781,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,10 +35018,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,19 +35969,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,13 +37157,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>226.4350751681936</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>55.51629994036225</v>
-      </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544966</v>
+        <v>579062.4560687632</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514381</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>146.1932996118735</v>
+        <v>88.55090549590537</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -996,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H8" t="n">
-        <v>120.9273370453295</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -1184,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>238.8022356950655</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>15.34175039594457</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>29.79900896488263</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1935,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1977,13 +1979,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>124.3469240739945</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2166,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>6.053809370039414</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>104.7383832473596</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,55 +2238,55 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>202.2946864288972</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2451,16 +2453,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>116.6930783966232</v>
+        <v>23.26470831312093</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,70 +2560,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
+      <c r="X26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>35.40726547353844</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2685,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>156.7701852745343</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2710,55 +2712,55 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2798,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.906780124857</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2928,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>94.23287597910762</v>
       </c>
     </row>
     <row r="31">
@@ -3029,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>52.0628898883872</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,19 +3158,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3199,58 +3201,58 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3408,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,61 +3429,61 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>33.19332575419072</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>178.7343098772259</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>200.3360962888295</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3870,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>148.6429936570148</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>200.3360962888294</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>123.3365499318636</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>49.31110394229507</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="C3" t="n">
-        <v>816.3871559026832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4443,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4623,25 +4625,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,7 +4658,7 @@
         <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G8" t="n">
-        <v>366.1018663125844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
         <v>243.9530410142718</v>
@@ -4832,22 +4834,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
         <v>817.1412885554689</v>
@@ -4890,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C11" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D11" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E11" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F11" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>125.0774898247174</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>125.0774898247174</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0774898247174</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>125.0774898247174</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>125.0774898247174</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5215,10 +5217,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5273,10 +5275,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
         <v>122.2961490211351</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>49.38115216564972</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D15" t="n">
-        <v>49.38115216564972</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>49.38115216564972</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5364,7 +5366,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="19">
@@ -5704,7 +5706,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5762,40 +5764,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>467.0679868542089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>310.661485460348</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>310.661485460348</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>310.661485460348</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>761.870560869402</v>
       </c>
       <c r="V21" t="n">
-        <v>125.0774898247174</v>
+        <v>761.870560869402</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>518.421784225302</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>518.421784225302</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>310.661485460348</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -5999,40 +6001,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O23" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="V23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990951</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879775</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768599</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902107</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="U24" t="n">
-        <v>470.5814199598456</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6178,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E27" t="n">
-        <v>55.04605772994853</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>805.7034330111067</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>577.4798147474958</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>577.4798147474958</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>334.0310381033958</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>334.0310381033958</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="28">
@@ -6406,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6446,7 +6448,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
@@ -6494,13 +6496,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="V29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W29" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
         <v>506.1786963984129</v>
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N30" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N30" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6576,16 +6578,16 @@
         <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>353.3011080883284</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>145.4496078827955</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.4496078827955</v>
+        <v>493.2684931088513</v>
       </c>
     </row>
     <row r="31">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>962.2293816994886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6743,7 +6745,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>619.4388494194218</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>566.8500717543842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6804,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X33" t="n">
-        <v>619.4388494194218</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y33" t="n">
-        <v>619.4388494194218</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
         <v>829.5248650203655</v>
@@ -7129,16 +7131,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>257.2326523711826</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y39" t="n">
-        <v>257.2326523711826</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.8830517671884</v>
+        <v>233.710825578336</v>
       </c>
       <c r="C41" t="n">
-        <v>231.8830517671884</v>
+        <v>233.710825578336</v>
       </c>
       <c r="D41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S41" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T41" t="n">
-        <v>962.2293816994886</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U41" t="n">
-        <v>962.2293816994886</v>
+        <v>720.608378866536</v>
       </c>
       <c r="V41" t="n">
-        <v>962.2293816994886</v>
+        <v>477.159602222436</v>
       </c>
       <c r="W41" t="n">
-        <v>718.7806050553886</v>
+        <v>233.710825578336</v>
       </c>
       <c r="X41" t="n">
-        <v>718.7806050553886</v>
+        <v>233.710825578336</v>
       </c>
       <c r="Y41" t="n">
-        <v>475.3318284112885</v>
+        <v>233.710825578336</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441254</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7496,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732473</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>813.9127174732473</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>813.9127174732473</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>570.4639408291473</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>570.4639408291473</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>362.7036420641934</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7658,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>839.4747818420872</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U45" t="n">
-        <v>611.2511635784762</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>376.0990553467335</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>132.6502787026334</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>132.6502787026334</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,10 +8306,10 @@
         <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9012,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9489,16 +9491,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N24" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>368.5691090902117</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22550,19 +22552,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22595,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>26.51519937644221</v>
+        <v>84.15759349241037</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22799,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -23033,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H8" t="n">
-        <v>218.5474650704376</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23072,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23100,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23200,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>176.5005018200695</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>96.89369384055189</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23498,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23543,16 +23545,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.5685030994106</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>115.2702034285012</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23701,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,22 +23779,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23865,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>101.5944580069804</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23944,10 +23946,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,10 +23974,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24054,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>151.5912710853615</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,16 +24341,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>109.2483036843516</v>
+        <v>202.6766737678539</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,13 +24448,13 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24531,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>109.6619469198454</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24573,13 +24575,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>43.39454342028733</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24686,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24734,16 +24736,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41.62640352501036</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24816,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>111.4498197981967</v>
       </c>
     </row>
     <row r="31">
@@ -24917,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,22 +24998,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>120.6456090999285</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,19 +25046,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>168.1279498935992</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,7 +25405,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>104.1501914090199</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>47.20707220374894</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25603,10 +25605,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318535</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25758,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>51.52173503780682</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,10 +25921,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900707</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>76.82817876295805</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.6302781386798</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="C2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="E2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="F2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="C2" t="n">
-        <v>108004.4371453661</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108004.4371453661</v>
-      </c>
-      <c r="E2" t="n">
-        <v>108004.4371453661</v>
-      </c>
-      <c r="F2" t="n">
-        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26344,13 +26346,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26457,7 +26459,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764732</v>
+        <v>-21225.79564764734</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390042</v>
+        <v>59543.6358839004</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.63588390044</v>
+        <v>59543.6358839004</v>
       </c>
       <c r="E6" t="n">
-        <v>93171.23588390043</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="F6" t="n">
+        <v>93171.23588390042</v>
+      </c>
+      <c r="G6" t="n">
         <v>93171.2358839004</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>93171.23588390039</v>
       </c>
-      <c r="H6" t="n">
-        <v>93171.23588390037</v>
-      </c>
       <c r="I6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30111.29328479415</v>
+      </c>
+      <c r="K6" t="n">
         <v>93171.23588390039</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30111.29328479416</v>
-      </c>
-      <c r="K6" t="n">
-        <v>93171.2358839004</v>
       </c>
       <c r="L6" t="n">
         <v>93171.23588390037</v>
       </c>
       <c r="M6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="N6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="O6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="P6" t="n">
         <v>93171.2358839004</v>
-      </c>
-      <c r="O6" t="n">
-        <v>93171.23588390042</v>
-      </c>
-      <c r="P6" t="n">
-        <v>93171.23588390039</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35024,10 +35026,10 @@
         <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35258,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35732,10 +35734,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36209,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N24" t="n">
-        <v>43.28534947792182</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681934</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
